--- a/ke toan.xlsx
+++ b/ke toan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="115">
   <si>
     <t>Loại chức năng</t>
   </si>
@@ -367,7 +367,13 @@
     <t>A=</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Thống kê tồn kho hàng hóa, chi phí vận chuyển, dịch vụ phụ, giảm giá, khuyến mãi, cho người dùng chọn từ</t>
+  </si>
+  <si>
+    <t>ngày đến ngày để in thống kê báo cáo.</t>
+  </si>
+  <si>
+    <t>Thống kê những hóa đơn bán giảm giá và khuyến mãi theo từng nhân viên đăng nhập, từ ngày đến ngày</t>
   </si>
 </sst>
 </file>
@@ -547,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,6 +650,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,12 +695,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,26 +704,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,9 +723,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1260,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1272,14 +1287,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1308,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="50"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
@@ -1525,11 +1540,11 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1551,8 +1566,8 @@
       <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1708,15 +1723,15 @@
         <v>80</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="39"/>
-      <c r="I21" s="38" t="s">
+      <c r="F21" s="55"/>
+      <c r="G21" s="51"/>
+      <c r="I21" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="39"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="12" t="s">
@@ -1726,8 +1741,8 @@
         <v>50</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1784,11 +1799,11 @@
         <v>107</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="12" t="s">
@@ -1798,8 +1813,8 @@
         <v>80</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="19" t="s">
         <v>6</v>
       </c>
@@ -1926,15 +1941,15 @@
       <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
       <c r="I38" s="4"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -2053,16 +2068,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B18:C18"/>
@@ -2070,6 +2075,16 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2079,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2097,13 +2112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="37" t="s">
@@ -2126,13 +2141,13 @@
       <c r="E3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -2152,16 +2167,16 @@
         <f>B4*D4</f>
         <v>33</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57">
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61">
         <f>E17*(0.65+0.01*base!H16)</f>
         <v>13.14</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
@@ -2181,16 +2196,16 @@
         <f t="shared" ref="E5:E6" si="0">B5*D5</f>
         <v>24</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60">
         <f>E25*(0.65+0.01*base!H16)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
@@ -2264,12 +2279,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="3">
         <f>SUM(E4:E8)</f>
         <v>79</v>
@@ -2382,12 +2397,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="3">
         <f>SUM(E12:E16)</f>
         <v>18</v>
@@ -2480,12 +2495,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="3">
         <f>SUM(E20:E24)</f>
         <v>0</v>
@@ -2512,13 +2527,13 @@
       <c r="E28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="3" t="s">
@@ -2538,16 +2553,16 @@
         <f>B29*D29</f>
         <v>33</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57">
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61">
         <f>E42*(0.65+0.01*base!H16)</f>
         <v>6.57</v>
       </c>
-      <c r="K29" s="58"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="3" t="s">
@@ -2567,16 +2582,16 @@
         <f t="shared" ref="E30:E31" si="3">B30*D30</f>
         <v>24</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56">
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60">
         <f>E50*(0.65+0.01*base!H16)</f>
         <v>5.1099999999999994</v>
       </c>
-      <c r="K30" s="56"/>
+      <c r="K30" s="60"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="3" t="s">
@@ -2650,12 +2665,12 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="3">
         <f>SUM(E29:E33)</f>
         <v>79</v>
@@ -2763,12 +2778,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="3">
         <f>SUM(E37:E41)</f>
         <v>9</v>
@@ -2847,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75">
+    <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,20 +2880,801 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
-      <c r="A50" s="46" t="s">
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="3">
         <f>SUM(E45:E49)</f>
         <v>7</v>
       </c>
     </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A53" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75">
+      <c r="A54" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="59"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="3">
+        <f>IF(C55="DG",VLOOKUP(A55,[1]nút!$H$4:$K$8,2,0),IF(C55="TB",VLOOKUP(A55,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A55,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="3">
+        <f>B55*D55</f>
+        <v>3</v>
+      </c>
+      <c r="G55" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="61">
+        <f>E68*(0.65+0.01*base!H16)</f>
+        <v>41.61</v>
+      </c>
+      <c r="K55" s="62"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75">
+      <c r="A56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="3">
+        <f>IF(C56="DG",VLOOKUP(A56,[1]nút!$H$4:$K$8,2,0),IF(C56="TB",VLOOKUP(A56,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A56,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>4</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" ref="E56:E57" si="6">B56*D56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60">
+        <f>E76*(0.65+0.01*base!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="60"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75">
+      <c r="A57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="3">
+        <f>IF(C57="DG",VLOOKUP(A57,[1]nút!$H$4:$K$8,2,0),IF(C57="TB",VLOOKUP(A57,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A57,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3">
+        <f>IF(C58="DG",VLOOKUP(A58,[1]nút!$H$4:$K$8,2,0),IF(C58="TB",VLOOKUP(A58,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A58,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>7</v>
+      </c>
+      <c r="E58" s="3">
+        <f>B58*D58</f>
+        <v>7</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75">
+      <c r="A59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="3">
+        <f>SUM(J55:K56)*55</f>
+        <v>2288.5500000000002</v>
+      </c>
+      <c r="I59" s="38">
+        <f>H59/1000</f>
+        <v>2.2885500000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75">
+      <c r="A60" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="3">
+        <f>SUM(E55:E59)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75">
+      <c r="A62" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="3">
+        <f>IF(C63="DG",VLOOKUP(A63,[1]nút!$H$4:$K$8,2,0),IF(C63="TB",VLOOKUP(A63,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A63,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E63" s="3">
+        <f>B63*D63</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75">
+      <c r="A64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3">
+        <f>IF(C64="DG",VLOOKUP(A64,[1]nút!$H$4:$K$8,2,0),IF(C64="TB",VLOOKUP(A64,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A64,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>4</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" ref="E64:E65" si="7">B64*D64</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75">
+      <c r="A65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3">
+        <f>IF(C65="DG",VLOOKUP(A65,[1]nút!$H$4:$K$8,2,0),IF(C65="TB",VLOOKUP(A65,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A65,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3">
+        <f>IF(C66="DG",VLOOKUP(A66,[1]nút!$H$4:$K$8,2,0),IF(C66="TB",VLOOKUP(A66,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A66,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>7</v>
+      </c>
+      <c r="E66" s="3">
+        <f>B66*D66</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75">
+      <c r="A67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75">
+      <c r="A68" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="3">
+        <f>SUM(E63:E67)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75">
+      <c r="A70" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75">
+      <c r="A71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <f>B71*D71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75">
+      <c r="A72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <f t="shared" ref="E72:E73" si="8">B72*D72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75">
+      <c r="A73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75">
+      <c r="A74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <f>B74*D74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75">
+      <c r="A75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75">
+      <c r="A76" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="3">
+        <f>SUM(E71:E75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75">
+      <c r="A80" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="59"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
+        <f>B81*D81</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="61">
+        <f>E94*(0.65+0.01*base!H93)</f>
+        <v>51.35</v>
+      </c>
+      <c r="K81" s="62"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75">
+      <c r="A82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
+        <f t="shared" ref="E82:E83" si="9">B82*D82</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60">
+        <f>E102*(0.65+0.01*base!H93)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="60"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75">
+      <c r="A83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75">
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
+        <f>B84*D84</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I84" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75">
+      <c r="A85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="3">
+        <f>SUM(J81:K82)*55</f>
+        <v>2824.25</v>
+      </c>
+      <c r="I85" s="38">
+        <f>H85/1000</f>
+        <v>2.8242500000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75">
+      <c r="A86" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="3">
+        <f>SUM(E81:E85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75">
+      <c r="A88" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="3">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="3">
+        <f>IF(C89="DG",VLOOKUP(A89,[1]nút!$H$4:$K$8,2,0),IF(C89="TB",VLOOKUP(A89,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A89,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
+        <f>B89*D89</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75">
+      <c r="A90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="3">
+        <v>10</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="3">
+        <f>IF(C90="DG",VLOOKUP(A90,[1]nút!$H$4:$K$8,2,0),IF(C90="TB",VLOOKUP(A90,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A90,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>4</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" ref="E90:E91" si="10">B90*D90</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75">
+      <c r="A91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="3">
+        <f>IF(C91="DG",VLOOKUP(A91,[1]nút!$H$4:$K$8,2,0),IF(C91="TB",VLOOKUP(A91,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A91,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75">
+      <c r="A92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="3">
+        <f>IF(C92="DG",VLOOKUP(A92,[1]nút!$H$4:$K$8,2,0),IF(C92="TB",VLOOKUP(A92,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A92,[1]nút!$H$4:$K$8,4,0)))</f>
+        <v>7</v>
+      </c>
+      <c r="E92" s="3">
+        <f>B92*D92</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75">
+      <c r="A93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75">
+      <c r="A94" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="3">
+        <f>SUM(E89:E93)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75">
+      <c r="A96" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75">
+      <c r="A97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
+        <f>B97*D97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3">
+        <f t="shared" ref="E98:E99" si="11">B98*D98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75">
+      <c r="A99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3">
+        <f>B100*D100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75">
+      <c r="A102" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="44"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="3">
+        <f>SUM(E97:E101)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="33">
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A17:D17"/>
@@ -2888,14 +3684,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2904,27 +3692,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:3">
       <c r="A2" s="37"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2936,31 +3724,31 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4">
-        <f>17107/1000</f>
-        <v>17.106999999999999</v>
+        <f>B3+(UFP!I8+UFP!I33+UFP!I59+UFP!I85)</f>
+        <v>23.041899999999998</v>
       </c>
       <c r="C4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
       <c r="B5">
         <f>B4-B3</f>
-        <v>0.54299999999999926</v>
+        <v>6.4778999999999982</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2969,19 +3757,19 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
       <c r="B7">
-        <f>B3*(0.543/B3)*B6</f>
-        <v>0.64073999999999998</v>
+        <f>B3*(B5/B3)*B6</f>
+        <v>7.6439219999999972</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2989,17 +3777,14 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="G9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +3795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="3">
         <f>0.91+0.01*SUM(base!$G$28:$G$32)</f>
         <v>1.0887</v>
@@ -3021,19 +3806,19 @@
       </c>
       <c r="C11" s="3">
         <f>B8*POWER(B7,A11)*B11</f>
-        <v>3.5560768710003106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
+        <v>52.857062341206976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="16">
         <f>ROUND(C11,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -3041,13 +3826,13 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="17">
         <f>B13*B14</f>
-        <v>8000000</v>
+        <v>106000000</v>
       </c>
     </row>
   </sheetData>

--- a/ke toan.xlsx
+++ b/ke toan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\CuaHangNongDuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -659,31 +659,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1287,7 +1287,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
@@ -1566,8 +1566,8 @@
       <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1589,10 +1589,10 @@
       <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="49"/>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1614,10 +1614,10 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="49"/>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1639,10 +1639,10 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="49"/>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1664,14 +1664,14 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="F16" s="41" t="s">
+      <c r="C16" s="49"/>
+      <c r="F16" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="2">
         <f>SUM(H2:H15)</f>
         <v>8</v>
@@ -1687,19 +1687,19 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="49"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4"/>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3695,7 +3695,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3823,7 +3823,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="17">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B15" s="17">
         <f>B13*B14</f>
-        <v>106000000</v>
+        <v>318000000</v>
       </c>
     </row>
   </sheetData>

--- a/ke toan.xlsx
+++ b/ke toan.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
-    <sheet name="UFP" sheetId="6" r:id="rId2"/>
-    <sheet name="COCOMO II" sheetId="7" r:id="rId3"/>
+    <sheet name="UFP+COCOMO II" sheetId="6" r:id="rId2"/>
+    <sheet name="Database" sheetId="9" r:id="rId3"/>
+    <sheet name="COCOMO II" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="118">
   <si>
     <t>Loại chức năng</t>
   </si>
@@ -319,9 +320,6 @@
     <t>Base code size</t>
   </si>
   <si>
-    <t>Tính điểm chức năng</t>
-  </si>
-  <si>
     <t>UFP thô(chưa được điều chỉnh)</t>
   </si>
   <si>
@@ -374,6 +372,18 @@
   </si>
   <si>
     <t>Thống kê những hóa đơn bán giảm giá và khuyến mãi theo từng nhân viên đăng nhập, từ ngày đến ngày</t>
+  </si>
+  <si>
+    <t>UFP</t>
+  </si>
+  <si>
+    <t>KDSI(thêm mới)</t>
+  </si>
+  <si>
+    <t>KDSI(chỉnh sửa)</t>
+  </si>
+  <si>
+    <t>Tổng kết</t>
   </si>
 </sst>
 </file>
@@ -403,14 +413,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -454,16 +456,28 @@
       <color rgb="FFFF0000"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -549,11 +563,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -570,54 +593,145 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,106 +740,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,6 +885,310 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="2190750"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="3838575"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="8810625"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="14001750"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="19164300"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="3838575"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -985,10 +1325,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1259,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="B5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1287,35 +1627,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="42"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1328,10 +1668,10 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="18">
         <v>0.99</v>
       </c>
     </row>
@@ -1358,10 +1698,10 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="18">
         <v>1.1399999999999999</v>
       </c>
     </row>
@@ -1388,10 +1728,10 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="18">
         <v>1.74</v>
       </c>
     </row>
@@ -1418,10 +1758,10 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1448,10 +1788,10 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1478,10 +1818,10 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1496,15 +1836,15 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="str">
@@ -1514,10 +1854,10 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1532,19 +1872,19 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1555,33 +1895,33 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Rất quan trọng</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="18">
         <v>4</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1589,24 +1929,24 @@
       <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="F13" s="7" t="s">
+      <c r="C13" s="36"/>
+      <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Rất quan trọng</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="18">
         <v>4</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1614,10 +1954,10 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="36"/>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1628,10 +1968,10 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1639,10 +1979,10 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="36"/>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1653,10 +1993,10 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1664,22 +2004,22 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="F16" s="48" t="s">
+      <c r="C16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="2">
         <f>SUM(H2:H15)</f>
         <v>8</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1687,19 +2027,19 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4"/>
@@ -1707,374 +2047,367 @@
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="24">
         <v>80</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="E21" s="50" t="s">
+      <c r="C21" s="22"/>
+      <c r="E21" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="51"/>
-      <c r="I21" s="50" t="s">
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="I21" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="24">
         <v>50</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="19" t="s">
+      <c r="C22" s="22"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="24">
         <v>128</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="E23" s="26" t="s">
+      <c r="C23" s="22"/>
+      <c r="E23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="20">
+      <c r="F23" s="62"/>
+      <c r="G23" s="18">
         <v>0.6</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="18">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="23">
         <v>55</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="24">
         <v>55</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="24">
         <v>107</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="E26" s="50" t="s">
+      <c r="C26" s="22"/>
+      <c r="E26" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="51"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="24">
         <v>80</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="19" t="s">
+      <c r="C27" s="22"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="24">
         <v>71</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="E28" s="26" t="s">
+      <c r="C28" s="22"/>
+      <c r="E28" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="20">
+      <c r="F28" s="62"/>
+      <c r="G28" s="18">
         <v>3.72</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="24">
         <v>55</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="E29" s="26" t="s">
+      <c r="C29" s="22"/>
+      <c r="E29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="20">
+      <c r="F29" s="62"/>
+      <c r="G29" s="18">
         <v>3.04</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="24">
         <v>213</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="22"/>
+      <c r="E30" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="20">
+      <c r="F30" s="62"/>
+      <c r="G30" s="18">
         <v>4.24</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="24">
         <v>20</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="E31" s="26" t="s">
+      <c r="C31" s="22"/>
+      <c r="E31" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="20">
+      <c r="F31" s="62"/>
+      <c r="G31" s="18">
         <v>2.19</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="24">
         <v>107</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="E32" s="26" t="s">
+      <c r="C32" s="22"/>
+      <c r="E32" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="20">
+      <c r="F32" s="62"/>
+      <c r="G32" s="18">
         <v>4.68</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="24">
         <v>20</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="24">
         <v>13</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="24">
         <v>32</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="J36" s="15"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="I37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="I37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
       <c r="I38" s="4"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:16" ht="33">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" s="27" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:16" ht="16.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="28">
         <v>68</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="27">
         <v>1022</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="27">
         <v>7</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="27">
         <v>227</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="29">
         <v>16564</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="27">
         <v>8051</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="I40" s="11"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="I41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="I41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="I42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="I42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="I43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="I43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="I44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="I44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="I45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="I45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="I46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="I46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="I47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="I47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="I48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
+      <c r="I48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="9:13">
-      <c r="I49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
+      <c r="I49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="9:13">
-      <c r="I50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
+      <c r="I50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
     </row>
     <row r="51" spans="9:13">
-      <c r="I51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
+      <c r="I51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
     </row>
     <row r="52" spans="9:13">
-      <c r="I52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
+      <c r="I52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:G26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -2085,6 +2418,13 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2094,63 +2434,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="50"/>
+    <col min="7" max="7" width="15.28515625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="26" style="50" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="A1" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="37" t="s">
-        <v>102</v>
+      <c r="A2" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="G3" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -2167,19 +2510,19 @@
         <f>B4*D4</f>
         <v>33</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="55">
         <f>E17*(0.65+0.01*base!H16)</f>
         <v>13.14</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -2196,19 +2539,19 @@
         <f t="shared" ref="E5:E6" si="0">B5*D5</f>
         <v>24</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
+      <c r="G5" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="54">
         <f>E25*(0.65+0.01*base!H16)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -2227,7 +2570,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -2244,18 +2587,18 @@
         <f>B7*D7</f>
         <v>7</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -2266,49 +2609,62 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3">
         <f>SUM(J4:K5)*55</f>
         <v>722.7</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="32">
         <f>H8/1000</f>
         <v>0.72270000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="3">
         <f>SUM(E4:E8)</f>
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="G11" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="50">
+        <f>base!F40/1000</f>
+        <v>16.564</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3">
@@ -2325,9 +2681,19 @@
         <f>B12*D12</f>
         <v>0</v>
       </c>
+      <c r="H12" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="50">
+        <f>I11+I8</f>
+        <v>17.2867</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3">
@@ -2344,9 +2710,19 @@
         <f t="shared" ref="E13:E14" si="1">B13*D13</f>
         <v>8</v>
       </c>
+      <c r="H13" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="50">
+        <f>I12-I11</f>
+        <v>0.72269999999999968</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3">
@@ -2363,9 +2739,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="H14" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="50">
+        <f>1+(base!J23/100*base!G23)</f>
+        <v>1.18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3">
@@ -2382,9 +2765,19 @@
         <f>B15*D15</f>
         <v>7</v>
       </c>
+      <c r="H15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="50">
+        <f>I11*(I13/I11)*I14</f>
+        <v>0.8527859999999996</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3">
@@ -2395,38 +2788,72 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
+      <c r="H16" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="50">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="3">
         <f>SUM(E12:E16)</f>
         <v>18</v>
       </c>
+      <c r="H17" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="H18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="H19" s="3">
+        <f>0.91+0.01*SUM(base!$G$28:$G$32)</f>
+        <v>1.0887</v>
+      </c>
+      <c r="I19" s="3">
+        <f>PRODUCT(base!$K$2:$K$16)</f>
+        <v>1.9637639999999996</v>
+      </c>
+      <c r="J19" s="3">
+        <f>I16*POWER(I15,H19)*I19</f>
+        <v>4.8544742320023442</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="3">
@@ -2440,7 +2867,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3">
@@ -2452,9 +2879,16 @@
         <f t="shared" ref="E21:E22" si="2">B21*D21</f>
         <v>0</v>
       </c>
+      <c r="H21" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="2">
+        <f>ROUND(J19,0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3">
@@ -2466,9 +2900,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H22" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="14">
+        <v>6000000</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3">
@@ -2480,9 +2920,16 @@
         <f>B23*D23</f>
         <v>0</v>
       </c>
+      <c r="H23" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="14">
+        <f>I21*I22</f>
+        <v>30000000</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="3">
@@ -2495,48 +2942,57 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="3">
         <f>SUM(E20:E24)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+    </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="37" t="s">
-        <v>103</v>
+      <c r="A27" s="53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
+      <c r="G28" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="3">
@@ -2553,19 +3009,19 @@
         <f>B29*D29</f>
         <v>33</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61">
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="55">
         <f>E42*(0.65+0.01*base!H16)</f>
         <v>6.57</v>
       </c>
-      <c r="K29" s="62"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3">
@@ -2582,19 +3038,19 @@
         <f t="shared" ref="E30:E31" si="3">B30*D30</f>
         <v>24</v>
       </c>
-      <c r="G30" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60">
+      <c r="G30" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="54">
         <f>E50*(0.65+0.01*base!H16)</f>
         <v>5.1099999999999994</v>
       </c>
-      <c r="K30" s="60"/>
+      <c r="K30" s="54"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3">
@@ -2613,7 +3069,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="3">
@@ -2630,18 +3086,18 @@
         <f>B32*D32</f>
         <v>7</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10" ht="15.75">
+      <c r="A33" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="3">
@@ -2652,49 +3108,62 @@
       <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="3">
         <f>SUM(J29:K30)*55</f>
         <v>642.4</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="32">
         <f>H33/1000</f>
         <v>0.64239999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
+    <row r="34" spans="1:10" ht="15.75">
+      <c r="A34" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="3">
         <f>SUM(E29:E33)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="A36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="3" t="s">
+      <c r="G36" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="50">
+        <f>base!F40/1000</f>
+        <v>16.564</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="3">
@@ -2711,9 +3180,19 @@
         <f>B37*D37</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="3" t="s">
+      <c r="H37" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="50">
+        <f>I36+I33</f>
+        <v>17.206399999999999</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="A38" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="3">
@@ -2730,9 +3209,19 @@
         <f t="shared" ref="E38:E39" si="4">B38*D38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="3" t="s">
+      <c r="H38" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="50">
+        <f>I37-I36</f>
+        <v>0.64239999999999853</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
+      <c r="A39" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3">
@@ -2749,9 +3238,16 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="3" t="s">
+      <c r="H39" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="50">
+        <f>1+(base!J23/100*base!G23)</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
+      <c r="A40" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3">
@@ -2763,9 +3259,19 @@
         <f>B40*D40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="3" t="s">
+      <c r="H40" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="50">
+        <f>I36*(I38/I36)*I39</f>
+        <v>0.75803199999999826</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
+      <c r="A41" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="3">
@@ -2776,38 +3282,72 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
+      <c r="H41" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="50">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="A42" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="3">
         <f>SUM(E37:E41)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="18" t="s">
+      <c r="H42" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75">
+      <c r="H43" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="3" t="s">
+      <c r="H44" s="3">
+        <f>0.91+0.01*SUM(base!$G$28:$G$32)</f>
+        <v>1.0887</v>
+      </c>
+      <c r="I44" s="3">
+        <f>PRODUCT(base!$K$2:$K$16)</f>
+        <v>1.9637639999999996</v>
+      </c>
+      <c r="J44" s="3">
+        <f>I41*POWER(I40,H44)*I44</f>
+        <v>4.2702416187656427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="A45" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="3">
@@ -2820,8 +3360,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="3">
@@ -2833,9 +3373,16 @@
         <f t="shared" ref="E46:E47" si="5">B46*D46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="3" t="s">
+      <c r="H46" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="2">
+        <f>ROUND(J44,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75">
+      <c r="A47" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="3">
@@ -2847,9 +3394,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="3" t="s">
+      <c r="H47" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="14">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
+      <c r="A48" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="3">
@@ -2861,9 +3414,16 @@
         <f>B48*D48</f>
         <v>0</v>
       </c>
+      <c r="H48" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="14">
+        <f>I46*I47</f>
+        <v>24000000</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="3">
@@ -2881,53 +3441,62 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="3">
         <f>SUM(E45:E49)</f>
         <v>7</v>
       </c>
     </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+    </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A53" s="53" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A53" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="59"/>
+      <c r="G54" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="65"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="3">
@@ -2944,19 +3513,19 @@
         <f>B55*D55</f>
         <v>3</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="G55" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="61">
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="55">
         <f>E68*(0.65+0.01*base!H16)</f>
         <v>41.61</v>
       </c>
-      <c r="K55" s="62"/>
+      <c r="K55" s="56"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="3">
@@ -2973,19 +3542,19 @@
         <f t="shared" ref="E56:E57" si="6">B56*D56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60">
+      <c r="G56" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="54">
         <f>E76*(0.65+0.01*base!H16)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="60"/>
+      <c r="K56" s="54"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="3">
@@ -3004,7 +3573,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="3">
@@ -3021,18 +3590,18 @@
         <f>B58*D58</f>
         <v>7</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="3">
@@ -3043,49 +3612,62 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="3">
         <f>SUM(J55:K56)*55</f>
         <v>2288.5500000000002</v>
       </c>
-      <c r="I59" s="38">
+      <c r="I59" s="32">
         <f>H59/1000</f>
         <v>2.2885500000000003</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45"/>
+      <c r="A60" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
       <c r="E60" s="3">
         <f>SUM(E55:E59)</f>
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="G62" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="50">
+        <f>base!F40/1000</f>
+        <v>16.564</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="3">
@@ -3102,9 +3684,19 @@
         <f>B63*D63</f>
         <v>15</v>
       </c>
+      <c r="H63" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I63" s="50">
+        <f>I62+I59</f>
+        <v>18.852550000000001</v>
+      </c>
+      <c r="J63" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3">
@@ -3121,9 +3713,19 @@
         <f t="shared" ref="E64:E65" si="7">B64*D64</f>
         <v>32</v>
       </c>
+      <c r="H64" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="50">
+        <f>I63-I62</f>
+        <v>2.2885500000000008</v>
+      </c>
+      <c r="J64" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="3">
@@ -3140,9 +3742,16 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
+      <c r="H65" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="50">
+        <f>1+(base!J23/100*base!G23)</f>
+        <v>1.18</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="3">
@@ -3159,9 +3768,19 @@
         <f>B66*D66</f>
         <v>7</v>
       </c>
+      <c r="H66" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="50">
+        <f>I62*(I64/I62)*I65</f>
+        <v>2.7004890000000006</v>
+      </c>
+      <c r="J66" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="3">
@@ -3172,38 +3791,72 @@
       <c r="E67" s="3">
         <v>0</v>
       </c>
+      <c r="H67" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="50">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45"/>
+      <c r="A68" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="3">
         <f>SUM(E63:E67)</f>
         <v>57</v>
       </c>
+      <c r="H68" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75">
+      <c r="H69" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="H70" s="3">
+        <f>0.91+0.01*SUM(base!$G$28:$G$32)</f>
+        <v>1.0887</v>
+      </c>
+      <c r="I70" s="3">
+        <f>PRODUCT(base!$K$2:$K$16)</f>
+        <v>1.9637639999999996</v>
+      </c>
+      <c r="J70" s="3">
+        <f>I67*POWER(I66,H70)*I70</f>
+        <v>17.027385917602668</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="3">
@@ -3217,7 +3870,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="3">
@@ -3229,9 +3882,16 @@
         <f t="shared" ref="E72:E73" si="8">B72*D72</f>
         <v>0</v>
       </c>
+      <c r="H72" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" s="2">
+        <f>ROUND(J70,0)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3">
@@ -3243,9 +3903,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="H73" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" s="14">
+        <v>6000000</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="15.75">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="3">
@@ -3257,9 +3923,16 @@
         <f>B74*D74</f>
         <v>0</v>
       </c>
+      <c r="H74" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" s="14">
+        <f>I72*I73</f>
+        <v>102000000</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="15.75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="3">
@@ -3272,48 +3945,57 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75">
-      <c r="A76" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
+      <c r="A76" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="3">
         <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+    </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="37" t="s">
-        <v>114</v>
+      <c r="A78" s="53" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="40" t="s">
+      <c r="D80" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="59"/>
+      <c r="G80" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="65"/>
     </row>
     <row r="81" spans="1:11" ht="15.75">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="3">
@@ -3325,19 +4007,19 @@
         <f>B81*D81</f>
         <v>0</v>
       </c>
-      <c r="G81" s="60" t="s">
+      <c r="G81" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="61">
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="55">
         <f>E94*(0.65+0.01*base!H93)</f>
         <v>51.35</v>
       </c>
-      <c r="K81" s="62"/>
+      <c r="K81" s="56"/>
     </row>
     <row r="82" spans="1:11" ht="15.75">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B82" s="3">
@@ -3349,19 +4031,19 @@
         <f t="shared" ref="E82:E83" si="9">B82*D82</f>
         <v>0</v>
       </c>
-      <c r="G82" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60">
+      <c r="G82" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="54">
         <f>E102*(0.65+0.01*base!H93)</f>
         <v>0</v>
       </c>
-      <c r="K82" s="60"/>
+      <c r="K82" s="54"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="3">
@@ -3375,7 +4057,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="3">
@@ -3387,18 +4069,18 @@
         <f>B84*D84</f>
         <v>0</v>
       </c>
-      <c r="G84" s="40" t="s">
+      <c r="G84" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="3">
@@ -3409,49 +4091,62 @@
       <c r="E85" s="3">
         <v>0</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="3">
         <f>SUM(J81:K82)*55</f>
         <v>2824.25</v>
       </c>
-      <c r="I85" s="38">
+      <c r="I85" s="32">
         <f>H85/1000</f>
         <v>2.8242500000000001</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75">
-      <c r="A86" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="45"/>
+      <c r="A86" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="3">
         <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="40" t="s">
+      <c r="C88" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="D88" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="E88" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="G88" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="50">
+        <f>base!F40/1000</f>
+        <v>16.564</v>
+      </c>
+      <c r="J88" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="15.75">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="3">
@@ -3468,9 +4163,19 @@
         <f>B89*D89</f>
         <v>12</v>
       </c>
+      <c r="H89" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I89" s="50">
+        <f>I88+I85</f>
+        <v>19.388249999999999</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="15.75">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="3">
@@ -3487,9 +4192,19 @@
         <f t="shared" ref="E90:E91" si="10">B90*D90</f>
         <v>40</v>
       </c>
+      <c r="H90" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I90" s="50">
+        <f>I89-I88</f>
+        <v>2.8242499999999993</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="15.75">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="3">
@@ -3506,9 +4221,16 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="H91" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I91" s="50">
+        <f>1+(base!J23/100*base!G23)</f>
+        <v>1.18</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="15.75">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="3">
@@ -3525,9 +4247,19 @@
         <f>B92*D92</f>
         <v>21</v>
       </c>
+      <c r="H92" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I92" s="50">
+        <f>I88*(I90/I88)*I91</f>
+        <v>3.3326149999999988</v>
+      </c>
+      <c r="J92" s="50" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="15.75">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="3">
@@ -3538,38 +4270,72 @@
       <c r="E93" s="3">
         <v>0</v>
       </c>
+      <c r="H93" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I93" s="50">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="15.75">
-      <c r="A94" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="45"/>
+      <c r="A94" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
       <c r="E94" s="3">
         <f>SUM(E89:E93)</f>
         <v>79</v>
       </c>
+      <c r="H94" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75">
+      <c r="H95" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" s="46" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="15.75">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="D96" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="40" t="s">
+      <c r="E96" s="46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75">
-      <c r="A97" s="3" t="s">
+      <c r="H96" s="3">
+        <f>0.91+0.01*SUM(base!$G$28:$G$32)</f>
+        <v>1.0887</v>
+      </c>
+      <c r="I96" s="3">
+        <f>PRODUCT(base!$K$2:$K$16)</f>
+        <v>1.9637639999999996</v>
+      </c>
+      <c r="J96" s="3">
+        <f>I93*POWER(I92,H96)*I96</f>
+        <v>21.408823990946253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75">
+      <c r="A97" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B97" s="3">
@@ -3582,8 +4348,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:10" ht="15.75">
+      <c r="A98" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3">
@@ -3595,9 +4361,16 @@
         <f t="shared" ref="E98:E99" si="11">B98*D98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75">
-      <c r="A99" s="3" t="s">
+      <c r="H98" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" s="2">
+        <f>ROUND(J96,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75">
+      <c r="A99" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="3">
@@ -3609,9 +4382,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75">
-      <c r="A100" s="3" t="s">
+      <c r="H99" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I99" s="14">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75">
+      <c r="A100" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="3">
@@ -3623,9 +4402,16 @@
         <f>B100*D100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75">
-      <c r="A101" s="3" t="s">
+      <c r="H100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="14">
+        <f>I98*I99</f>
+        <v>126000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75">
+      <c r="A101" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="3">
@@ -3637,44 +4423,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
-      <c r="A102" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="45"/>
+    <row r="102" spans="1:10" ht="15.75">
+      <c r="A102" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="41"/>
       <c r="E102" s="3">
         <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
+      <c r="G102" s="57"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75">
+      <c r="G103" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="H104" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I104" s="50">
+        <f>base!F40/1000</f>
+        <v>16.564</v>
+      </c>
+      <c r="J104" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="H105" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I105" s="50">
+        <f>I104+SUM(I85,I59,I33,I8)</f>
+        <v>23.041899999999998</v>
+      </c>
+      <c r="J105" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="H106" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I106" s="50">
+        <f>I105-I104</f>
+        <v>6.4778999999999982</v>
+      </c>
+      <c r="J106" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75">
+      <c r="H108" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108" s="2">
+        <f>SUM(I98,I72,I46,I21)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75">
+      <c r="H109" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I109" s="14">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75">
+      <c r="H110" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I110" s="14">
+        <f>I108*I109</f>
+        <v>282000000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A34:D34"/>
+  <mergeCells count="41">
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A77:E77"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A17:D17"/>
@@ -3684,18 +4521,225 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H94:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="50"/>
+    <col min="5" max="5" width="10.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2850</v>
+      </c>
+      <c r="C2" s="32">
+        <f>B2/1000</f>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <f>F5/1000</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="50">
+        <f>1+(base!J23/100*base!G23)</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="51">
+        <f>C2*(C5+G5)/C2*B7</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="50">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="3">
+        <f>0.91+0.01*SUM(base!$G$28:$G$32)</f>
+        <v>1.0887</v>
+      </c>
+      <c r="B13" s="3">
+        <f>PRODUCT(base!$K$2:$K$16)</f>
+        <v>1.9637639999999996</v>
+      </c>
+      <c r="C13" s="3">
+        <f>B10*POWER(B8,A13)*B13</f>
+        <v>0.32319738057125474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2">
+        <f>ROUNDUP(C13,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="14">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="14">
+        <f>B15*B16</f>
+        <v>6000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3706,51 +4750,51 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <f>base!F40/1000</f>
         <v>16.564</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <f>B3+('UFP+COCOMO II'!I8+'UFP+COCOMO II'!I33+'UFP+COCOMO II'!I59+'UFP+COCOMO II'!I85)</f>
+        <v>23.041899999999998</v>
+      </c>
+      <c r="C4" t="s">
         <v>107</v>
-      </c>
-      <c r="B4">
-        <f>B3+(UFP!I8+UFP!I33+UFP!I59+UFP!I85)</f>
-        <v>23.041899999999998</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <f>B4-B3</f>
         <v>6.4778999999999982</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <f>1+(base!J23/100*base!G23)</f>
@@ -3759,39 +4803,39 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <f>B3*(B5/B3)*B6</f>
         <v>7.6439219999999972</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>2.94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3813,7 +4857,7 @@
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <f>ROUND(C11,0)</f>
         <v>53</v>
       </c>
@@ -3822,7 +4866,7 @@
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>6000000</v>
       </c>
     </row>
@@ -3830,7 +4874,7 @@
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="14">
         <f>B13*B14</f>
         <v>318000000</v>
       </c>

--- a/ke toan.xlsx
+++ b/ke toan.xlsx
@@ -17,9 +17,6 @@
     <sheet name="Database" sheetId="9" r:id="rId3"/>
     <sheet name="COCOMO II" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -661,107 +658,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,98 +1239,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="nút"/>
-      <sheetName val="F1"/>
-      <sheetName val="F2"/>
-      <sheetName val="F3"/>
-      <sheetName val="CSDL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="H4" t="str">
-            <v>EI</v>
-          </cell>
-          <cell r="I4">
-            <v>3</v>
-          </cell>
-          <cell r="J4">
-            <v>4</v>
-          </cell>
-          <cell r="K4">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5" t="str">
-            <v>EO</v>
-          </cell>
-          <cell r="I5">
-            <v>4</v>
-          </cell>
-          <cell r="J5">
-            <v>5</v>
-          </cell>
-          <cell r="K5">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6" t="str">
-            <v>EQ</v>
-          </cell>
-          <cell r="I6">
-            <v>3</v>
-          </cell>
-          <cell r="J6">
-            <v>4</v>
-          </cell>
-          <cell r="K6">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7" t="str">
-            <v>ILF</v>
-          </cell>
-          <cell r="I7">
-            <v>7</v>
-          </cell>
-          <cell r="J7">
-            <v>10</v>
-          </cell>
-          <cell r="K7">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8" t="str">
-            <v>EIF</v>
-          </cell>
-          <cell r="I8">
-            <v>5</v>
-          </cell>
-          <cell r="J8">
-            <v>7</v>
-          </cell>
-          <cell r="K8">
-            <v>10</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1599,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1627,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
       <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1553,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="38"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="33" t="s">
         <v>30</v>
       </c>
@@ -1880,11 +1785,11 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +1811,8 @@
       <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1929,10 +1834,10 @@
       <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="55"/>
       <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1954,10 +1859,10 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="55"/>
       <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1979,10 +1884,10 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="55"/>
       <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2004,14 +1909,14 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="F16" s="35" t="s">
+      <c r="C16" s="55"/>
+      <c r="F16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="2">
         <f>SUM(H2:H15)</f>
         <v>8</v>
@@ -2027,19 +1932,19 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4"/>
@@ -2063,15 +1968,15 @@
         <v>80</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="56" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="I21" s="58" t="s">
+      <c r="G21" s="57"/>
+      <c r="I21" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="60"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
@@ -2081,8 +1986,8 @@
         <v>50</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="17" t="s">
         <v>6</v>
       </c>
@@ -2099,10 +2004,10 @@
         <v>128</v>
       </c>
       <c r="C23" s="22"/>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="18">
         <v>0.6</v>
       </c>
@@ -2139,11 +2044,11 @@
         <v>107</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
@@ -2153,8 +2058,8 @@
         <v>80</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="17" t="s">
         <v>6</v>
       </c>
@@ -2167,10 +2072,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="18">
         <v>3.72</v>
       </c>
@@ -2183,10 +2088,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="18">
         <v>3.04</v>
       </c>
@@ -2199,10 +2104,10 @@
         <v>213</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="18">
         <v>4.24</v>
       </c>
@@ -2215,10 +2120,10 @@
         <v>20</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="18">
         <v>2.19</v>
       </c>
@@ -2231,10 +2136,10 @@
         <v>107</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="18">
         <v>4.68</v>
       </c>
@@ -2281,15 +2186,15 @@
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
       <c r="I38" s="4"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -2408,6 +2313,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -2418,13 +2330,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2436,64 +2341,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="50"/>
-    <col min="7" max="7" width="15.28515625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="26" style="50" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="50" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="39"/>
+    <col min="7" max="7" width="15.28515625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="26" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="41" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
@@ -2503,26 +2408,26 @@
         <v>30</v>
       </c>
       <c r="D4" s="3">
-        <f>IF(C4="DG",VLOOKUP(A4,[1]nút!$H$4:$K$8,2,0),IF(C4="TB",VLOOKUP(A4,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A4,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C4="DG",VLOOKUP(A4,base!$A$3:$D$7,2,0),IF(C4="TB",VLOOKUP(A4,base!$A$3:$D$7,3,0),VLOOKUP(A4,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E4" s="3">
         <f>B4*D4</f>
         <v>33</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="55">
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66">
         <f>E17*(0.65+0.01*base!H16)</f>
         <v>13.14</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
@@ -2532,26 +2437,26 @@
         <v>30</v>
       </c>
       <c r="D5" s="3">
-        <f>IF(C5="DG",VLOOKUP(A5,[1]nút!$H$4:$K$8,2,0),IF(C5="TB",VLOOKUP(A5,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A5,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C5="DG",VLOOKUP(A5,base!$A$3:$D$7,2,0),IF(C5="TB",VLOOKUP(A5,base!$A$3:$D$7,3,0),VLOOKUP(A5,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ref="E5:E6" si="0">B5*D5</f>
         <v>24</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="54">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="68">
         <f>E25*(0.65+0.01*base!H16)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="54"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3">
@@ -2561,7 +2466,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3">
-        <f>IF(C6="DG",VLOOKUP(A6,[1]nút!$H$4:$K$8,2,0),IF(C6="TB",VLOOKUP(A6,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A6,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C6="DG",VLOOKUP(A6,base!$A$3:$D$7,2,0),IF(C6="TB",VLOOKUP(A6,base!$A$3:$D$7,3,0),VLOOKUP(A6,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E6" s="3">
@@ -2570,7 +2475,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
@@ -2580,7 +2485,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3">
-        <f>IF(C7="DG",VLOOKUP(A7,[1]nút!$H$4:$K$8,2,0),IF(C7="TB",VLOOKUP(A7,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A7,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C7="DG",VLOOKUP(A7,base!$A$3:$D$7,2,0),IF(C7="TB",VLOOKUP(A7,base!$A$3:$D$7,3,0),VLOOKUP(A7,base!$A$3:$D$7,4,0)))</f>
         <v>7</v>
       </c>
       <c r="E7" s="3">
@@ -2598,7 +2503,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
@@ -2622,49 +2527,49 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="3">
         <f>SUM(E4:E8)</f>
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="39">
         <f>base!F40/1000</f>
         <v>16.564</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="3">
@@ -2674,26 +2579,26 @@
         <v>30</v>
       </c>
       <c r="D12" s="3">
-        <f>IF(C12="DG",VLOOKUP(A12,[1]nút!$H$4:$K$8,2,0),IF(C12="TB",VLOOKUP(A12,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A12,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C12="DG",VLOOKUP(A12,base!$A$3:$D$7,2,0),IF(C12="TB",VLOOKUP(A12,base!$A$3:$D$7,3,0),VLOOKUP(A12,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E12" s="3">
         <f>B12*D12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="39">
         <f>I11+I8</f>
         <v>17.2867</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3">
@@ -2703,26 +2608,26 @@
         <v>30</v>
       </c>
       <c r="D13" s="3">
-        <f>IF(C13="DG",VLOOKUP(A13,[1]nút!$H$4:$K$8,2,0),IF(C13="TB",VLOOKUP(A13,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A13,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C13="DG",VLOOKUP(A13,base!$A$3:$D$7,2,0),IF(C13="TB",VLOOKUP(A13,base!$A$3:$D$7,3,0),VLOOKUP(A13,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="E13:E14" si="1">B13*D13</f>
         <v>8</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="39">
         <f>I12-I11</f>
         <v>0.72269999999999968</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3">
@@ -2732,23 +2637,23 @@
         <v>30</v>
       </c>
       <c r="D14" s="3">
-        <f>IF(C14="DG",VLOOKUP(A14,[1]nút!$H$4:$K$8,2,0),IF(C14="TB",VLOOKUP(A14,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A14,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C14="DG",VLOOKUP(A14,base!$A$3:$D$7,2,0),IF(C14="TB",VLOOKUP(A14,base!$A$3:$D$7,3,0),VLOOKUP(A14,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="39">
         <f>1+(base!J23/100*base!G23)</f>
         <v>1.18</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3">
@@ -2758,26 +2663,26 @@
         <v>30</v>
       </c>
       <c r="D15" s="3">
-        <f>IF(C15="DG",VLOOKUP(A15,[1]nút!$H$4:$K$8,2,0),IF(C15="TB",VLOOKUP(A15,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A15,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C15="DG",VLOOKUP(A15,base!$A$3:$D$7,2,0),IF(C15="TB",VLOOKUP(A15,base!$A$3:$D$7,3,0),VLOOKUP(A15,base!$A$3:$D$7,4,0)))</f>
         <v>7</v>
       </c>
       <c r="E15" s="3">
         <f>B15*D15</f>
         <v>7</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="39">
         <f>I11*(I13/I11)*I14</f>
         <v>0.8527859999999996</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3">
@@ -2788,55 +2693,55 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="39">
         <v>2.94</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="3">
         <f>SUM(E12:E16)</f>
         <v>18</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="46" t="s">
+      <c r="J18" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="3">
@@ -2853,7 +2758,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="3">
@@ -2867,7 +2772,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3">
@@ -2879,7 +2784,7 @@
         <f t="shared" ref="E21:E22" si="2">B21*D21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="45" t="s">
         <v>84</v>
       </c>
       <c r="I21" s="2">
@@ -2888,7 +2793,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3">
@@ -2900,7 +2805,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="45" t="s">
         <v>86</v>
       </c>
       <c r="I22" s="14">
@@ -2908,7 +2813,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3">
@@ -2920,7 +2825,7 @@
         <f>B23*D23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="45" t="s">
         <v>85</v>
       </c>
       <c r="I23" s="14">
@@ -2929,7 +2834,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="3">
@@ -2942,57 +2847,57 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="3">
         <f>SUM(E20:E24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="41" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="3">
@@ -3002,26 +2907,26 @@
         <v>30</v>
       </c>
       <c r="D29" s="3">
-        <f>IF(C29="DG",VLOOKUP(A29,[1]nút!$H$4:$K$8,2,0),IF(C29="TB",VLOOKUP(A29,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A29,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C29="DG",VLOOKUP(A29,base!$A$3:$D$7,2,0),IF(C29="TB",VLOOKUP(A29,base!$A$3:$D$7,3,0),VLOOKUP(A29,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E29" s="3">
         <f>B29*D29</f>
         <v>33</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="55">
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66">
         <f>E42*(0.65+0.01*base!H16)</f>
         <v>6.57</v>
       </c>
-      <c r="K29" s="56"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3">
@@ -3031,26 +2936,26 @@
         <v>30</v>
       </c>
       <c r="D30" s="3">
-        <f>IF(C30="DG",VLOOKUP(A30,[1]nút!$H$4:$K$8,2,0),IF(C30="TB",VLOOKUP(A30,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A30,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C30="DG",VLOOKUP(A30,base!$A$3:$D$7,2,0),IF(C30="TB",VLOOKUP(A30,base!$A$3:$D$7,3,0),VLOOKUP(A30,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ref="E30:E31" si="3">B30*D30</f>
         <v>24</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="54">
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="68">
         <f>E50*(0.65+0.01*base!H16)</f>
-        <v>5.1099999999999994</v>
-      </c>
-      <c r="K30" s="54"/>
+        <v>3.65</v>
+      </c>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3">
@@ -3060,7 +2965,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3">
-        <f>IF(C31="DG",VLOOKUP(A31,[1]nút!$H$4:$K$8,2,0),IF(C31="TB",VLOOKUP(A31,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A31,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C31="DG",VLOOKUP(A31,base!$A$3:$D$7,2,0),IF(C31="TB",VLOOKUP(A31,base!$A$3:$D$7,3,0),VLOOKUP(A31,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E31" s="3">
@@ -3069,7 +2974,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="3">
@@ -3079,25 +2984,25 @@
         <v>30</v>
       </c>
       <c r="D32" s="3">
-        <f>IF(C32="DG",VLOOKUP(A32,[1]nút!$H$4:$K$8,2,0),IF(C32="TB",VLOOKUP(A32,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A32,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C32="DG",VLOOKUP(A32,base!$A$3:$D$7,2,0),IF(C32="TB",VLOOKUP(A32,base!$A$3:$D$7,3,0),VLOOKUP(A32,base!$A$3:$D$7,4,0)))</f>
         <v>7</v>
       </c>
       <c r="E32" s="3">
         <f>B32*D32</f>
         <v>7</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="3">
@@ -3113,57 +3018,57 @@
       </c>
       <c r="H33" s="3">
         <f>SUM(J29:K30)*55</f>
-        <v>642.4</v>
+        <v>562.1</v>
       </c>
       <c r="I33" s="32">
         <f>H33/1000</f>
-        <v>0.64239999999999997</v>
+        <v>0.56210000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="3">
         <f>SUM(E29:E33)</f>
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="50">
+      <c r="I36" s="39">
         <f>base!F40/1000</f>
         <v>16.564</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="3">
@@ -3173,26 +3078,26 @@
         <v>30</v>
       </c>
       <c r="D37" s="3">
-        <f>IF(C37="DG",VLOOKUP(A37,[1]nút!$H$4:$K$8,2,0),IF(C37="TB",VLOOKUP(A37,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A37,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C37="DG",VLOOKUP(A37,base!$A$3:$D$7,2,0),IF(C37="TB",VLOOKUP(A37,base!$A$3:$D$7,3,0),VLOOKUP(A37,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E37" s="3">
         <f>B37*D37</f>
         <v>6</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="50">
+      <c r="I37" s="39">
         <f>I36+I33</f>
-        <v>17.206399999999999</v>
-      </c>
-      <c r="J37" s="50" t="s">
+        <v>17.126100000000001</v>
+      </c>
+      <c r="J37" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="3">
@@ -3202,26 +3107,26 @@
         <v>30</v>
       </c>
       <c r="D38" s="3">
-        <f>IF(C38="DG",VLOOKUP(A38,[1]nút!$H$4:$K$8,2,0),IF(C38="TB",VLOOKUP(A38,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A38,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C38="DG",VLOOKUP(A38,base!$A$3:$D$7,2,0),IF(C38="TB",VLOOKUP(A38,base!$A$3:$D$7,3,0),VLOOKUP(A38,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ref="E38:E39" si="4">B38*D38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="50">
+      <c r="I38" s="39">
         <f>I37-I36</f>
-        <v>0.64239999999999853</v>
-      </c>
-      <c r="J38" s="50" t="s">
+        <v>0.56210000000000093</v>
+      </c>
+      <c r="J38" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3">
@@ -3231,23 +3136,23 @@
         <v>30</v>
       </c>
       <c r="D39" s="3">
-        <f>IF(C39="DG",VLOOKUP(A39,[1]nút!$H$4:$K$8,2,0),IF(C39="TB",VLOOKUP(A39,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A39,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C39="DG",VLOOKUP(A39,base!$A$3:$D$7,2,0),IF(C39="TB",VLOOKUP(A39,base!$A$3:$D$7,3,0),VLOOKUP(A39,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I39" s="50">
+      <c r="I39" s="39">
         <f>1+(base!J23/100*base!G23)</f>
         <v>1.18</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3">
@@ -3259,19 +3164,19 @@
         <f>B40*D40</f>
         <v>0</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="50">
+      <c r="I40" s="39">
         <f>I36*(I38/I36)*I39</f>
-        <v>0.75803199999999826</v>
-      </c>
-      <c r="J40" s="50" t="s">
+        <v>0.66327800000000103</v>
+      </c>
+      <c r="J40" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="3">
@@ -3282,55 +3187,55 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="50">
+      <c r="I41" s="39">
         <v>2.94</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="3">
         <f>SUM(E37:E41)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="H43" s="46" t="s">
+      <c r="H43" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H44" s="3">
@@ -3343,11 +3248,11 @@
       </c>
       <c r="J44" s="3">
         <f>I41*POWER(I40,H44)*I44</f>
-        <v>4.2702416187656427</v>
+        <v>3.6924669458367614</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="3">
@@ -3361,7 +3266,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="3">
@@ -3373,7 +3278,7 @@
         <f t="shared" ref="E46:E47" si="5">B46*D46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="68" t="s">
+      <c r="H46" s="45" t="s">
         <v>84</v>
       </c>
       <c r="I46" s="2">
@@ -3382,7 +3287,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="3">
@@ -3394,7 +3299,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="45" t="s">
         <v>86</v>
       </c>
       <c r="I47" s="14">
@@ -3402,7 +3307,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="3">
@@ -3414,7 +3319,7 @@
         <f>B48*D48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="68" t="s">
+      <c r="H48" s="45" t="s">
         <v>85</v>
       </c>
       <c r="I48" s="14">
@@ -3423,7 +3328,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="3">
@@ -3433,70 +3338,71 @@
         <v>30</v>
       </c>
       <c r="D49" s="3">
-        <v>7</v>
+        <f>IF(C49="DG",VLOOKUP(A49,base!$A$3:$D$7,2,0),IF(C49="TB",VLOOKUP(A49,base!$A$3:$D$7,3,0),VLOOKUP(A49,base!$A$3:$D$7,4,0)))</f>
+        <v>5</v>
       </c>
       <c r="E49" s="3">
         <f>B49*D49</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="3">
         <f>SUM(E45:E49)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="63" t="s">
+      <c r="G54" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="65"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="3">
@@ -3506,26 +3412,26 @@
         <v>30</v>
       </c>
       <c r="D55" s="3">
-        <f>IF(C55="DG",VLOOKUP(A55,[1]nút!$H$4:$K$8,2,0),IF(C55="TB",VLOOKUP(A55,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A55,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C55="DG",VLOOKUP(A55,base!$A$3:$D$7,2,0),IF(C55="TB",VLOOKUP(A55,base!$A$3:$D$7,3,0),VLOOKUP(A55,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E55" s="3">
         <f>B55*D55</f>
         <v>3</v>
       </c>
-      <c r="G55" s="66" t="s">
+      <c r="G55" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="55">
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="66">
         <f>E68*(0.65+0.01*base!H16)</f>
         <v>41.61</v>
       </c>
-      <c r="K55" s="56"/>
+      <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="3">
@@ -3535,26 +3441,26 @@
         <v>30</v>
       </c>
       <c r="D56" s="3">
-        <f>IF(C56="DG",VLOOKUP(A56,[1]nút!$H$4:$K$8,2,0),IF(C56="TB",VLOOKUP(A56,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A56,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C56="DG",VLOOKUP(A56,base!$A$3:$D$7,2,0),IF(C56="TB",VLOOKUP(A56,base!$A$3:$D$7,3,0),VLOOKUP(A56,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ref="E56:E57" si="6">B56*D56</f>
         <v>0</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="54">
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="68">
         <f>E76*(0.65+0.01*base!H16)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="54"/>
+      <c r="K56" s="68"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="3">
@@ -3564,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="D57" s="3">
-        <f>IF(C57="DG",VLOOKUP(A57,[1]nút!$H$4:$K$8,2,0),IF(C57="TB",VLOOKUP(A57,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A57,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C57="DG",VLOOKUP(A57,base!$A$3:$D$7,2,0),IF(C57="TB",VLOOKUP(A57,base!$A$3:$D$7,3,0),VLOOKUP(A57,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E57" s="3">
@@ -3573,7 +3479,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="3">
@@ -3583,25 +3489,25 @@
         <v>30</v>
       </c>
       <c r="D58" s="3">
-        <f>IF(C58="DG",VLOOKUP(A58,[1]nút!$H$4:$K$8,2,0),IF(C58="TB",VLOOKUP(A58,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A58,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C58="DG",VLOOKUP(A58,base!$A$3:$D$7,2,0),IF(C58="TB",VLOOKUP(A58,base!$A$3:$D$7,3,0),VLOOKUP(A58,base!$A$3:$D$7,4,0)))</f>
         <v>7</v>
       </c>
       <c r="E58" s="3">
         <f>B58*D58</f>
         <v>7</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I58" s="46" t="s">
+      <c r="I58" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="3">
@@ -3625,49 +3531,49 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="3">
         <f>SUM(E55:E59)</f>
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="50">
+      <c r="I62" s="39">
         <f>base!F40/1000</f>
         <v>16.564</v>
       </c>
-      <c r="J62" s="50" t="s">
+      <c r="J62" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="3">
@@ -3677,26 +3583,26 @@
         <v>30</v>
       </c>
       <c r="D63" s="3">
-        <f>IF(C63="DG",VLOOKUP(A63,[1]nút!$H$4:$K$8,2,0),IF(C63="TB",VLOOKUP(A63,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A63,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C63="DG",VLOOKUP(A63,base!$A$3:$D$7,2,0),IF(C63="TB",VLOOKUP(A63,base!$A$3:$D$7,3,0),VLOOKUP(A63,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E63" s="3">
         <f>B63*D63</f>
         <v>15</v>
       </c>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I63" s="50">
+      <c r="I63" s="39">
         <f>I62+I59</f>
         <v>18.852550000000001</v>
       </c>
-      <c r="J63" s="50" t="s">
+      <c r="J63" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3">
@@ -3706,26 +3612,26 @@
         <v>30</v>
       </c>
       <c r="D64" s="3">
-        <f>IF(C64="DG",VLOOKUP(A64,[1]nút!$H$4:$K$8,2,0),IF(C64="TB",VLOOKUP(A64,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A64,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C64="DG",VLOOKUP(A64,base!$A$3:$D$7,2,0),IF(C64="TB",VLOOKUP(A64,base!$A$3:$D$7,3,0),VLOOKUP(A64,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" ref="E64:E65" si="7">B64*D64</f>
         <v>32</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I64" s="50">
+      <c r="I64" s="39">
         <f>I63-I62</f>
         <v>2.2885500000000008</v>
       </c>
-      <c r="J64" s="50" t="s">
+      <c r="J64" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="3">
@@ -3735,23 +3641,23 @@
         <v>30</v>
       </c>
       <c r="D65" s="3">
-        <f>IF(C65="DG",VLOOKUP(A65,[1]nút!$H$4:$K$8,2,0),IF(C65="TB",VLOOKUP(A65,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A65,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C65="DG",VLOOKUP(A65,base!$A$3:$D$7,2,0),IF(C65="TB",VLOOKUP(A65,base!$A$3:$D$7,3,0),VLOOKUP(A65,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="50">
+      <c r="I65" s="39">
         <f>1+(base!J23/100*base!G23)</f>
         <v>1.18</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="3">
@@ -3761,26 +3667,26 @@
         <v>30</v>
       </c>
       <c r="D66" s="3">
-        <f>IF(C66="DG",VLOOKUP(A66,[1]nút!$H$4:$K$8,2,0),IF(C66="TB",VLOOKUP(A66,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A66,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C66="DG",VLOOKUP(A66,base!$A$3:$D$7,2,0),IF(C66="TB",VLOOKUP(A66,base!$A$3:$D$7,3,0),VLOOKUP(A66,base!$A$3:$D$7,4,0)))</f>
         <v>7</v>
       </c>
       <c r="E66" s="3">
         <f>B66*D66</f>
         <v>7</v>
       </c>
-      <c r="H66" s="50" t="s">
+      <c r="H66" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I66" s="50">
+      <c r="I66" s="39">
         <f>I62*(I64/I62)*I65</f>
         <v>2.7004890000000006</v>
       </c>
-      <c r="J66" s="50" t="s">
+      <c r="J66" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="3">
@@ -3791,55 +3697,55 @@
       <c r="E67" s="3">
         <v>0</v>
       </c>
-      <c r="H67" s="50" t="s">
+      <c r="H67" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I67" s="50">
+      <c r="I67" s="39">
         <v>2.94</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="3">
         <f>SUM(E63:E67)</f>
         <v>57</v>
       </c>
-      <c r="H68" s="67" t="s">
+      <c r="H68" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
     </row>
     <row r="69" spans="1:11" ht="15.75">
-      <c r="H69" s="46" t="s">
+      <c r="H69" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="46" t="s">
+      <c r="I69" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J69" s="46" t="s">
+      <c r="J69" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E70" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H70" s="3">
@@ -3856,7 +3762,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="3">
@@ -3870,7 +3776,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="3">
@@ -3882,7 +3788,7 @@
         <f t="shared" ref="E72:E73" si="8">B72*D72</f>
         <v>0</v>
       </c>
-      <c r="H72" s="68" t="s">
+      <c r="H72" s="45" t="s">
         <v>84</v>
       </c>
       <c r="I72" s="2">
@@ -3891,7 +3797,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3">
@@ -3903,7 +3809,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H73" s="68" t="s">
+      <c r="H73" s="45" t="s">
         <v>86</v>
       </c>
       <c r="I73" s="14">
@@ -3911,7 +3817,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="3">
@@ -3923,7 +3829,7 @@
         <f>B74*D74</f>
         <v>0</v>
       </c>
-      <c r="H74" s="68" t="s">
+      <c r="H74" s="45" t="s">
         <v>85</v>
       </c>
       <c r="I74" s="14">
@@ -3932,7 +3838,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="3">
@@ -3945,57 +3851,57 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="3">
         <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="41" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="46" t="s">
+      <c r="C80" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E80" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="63" t="s">
+      <c r="G80" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="65"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="1:11" ht="15.75">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="3">
@@ -4007,19 +3913,19 @@
         <f>B81*D81</f>
         <v>0</v>
       </c>
-      <c r="G81" s="66" t="s">
+      <c r="G81" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="55">
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="66">
         <f>E94*(0.65+0.01*base!H93)</f>
         <v>51.35</v>
       </c>
-      <c r="K81" s="56"/>
+      <c r="K81" s="67"/>
     </row>
     <row r="82" spans="1:11" ht="15.75">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B82" s="3">
@@ -4031,19 +3937,19 @@
         <f t="shared" ref="E82:E83" si="9">B82*D82</f>
         <v>0</v>
       </c>
-      <c r="G82" s="66" t="s">
+      <c r="G82" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="54">
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="68">
         <f>E102*(0.65+0.01*base!H93)</f>
         <v>0</v>
       </c>
-      <c r="K82" s="54"/>
+      <c r="K82" s="68"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="3">
@@ -4057,7 +3963,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="3">
@@ -4069,18 +3975,18 @@
         <f>B84*D84</f>
         <v>0</v>
       </c>
-      <c r="G84" s="46" t="s">
+      <c r="G84" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H84" s="48" t="s">
+      <c r="H84" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I84" s="46" t="s">
+      <c r="I84" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="3">
@@ -4104,49 +4010,49 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="41"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="51"/>
       <c r="E86" s="3">
         <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="D88" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G88" s="45" t="s">
+      <c r="G88" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H88" s="50" t="s">
+      <c r="H88" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I88" s="50">
+      <c r="I88" s="39">
         <f>base!F40/1000</f>
         <v>16.564</v>
       </c>
-      <c r="J88" s="50" t="s">
+      <c r="J88" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="3">
@@ -4156,26 +4062,26 @@
         <v>30</v>
       </c>
       <c r="D89" s="3">
-        <f>IF(C89="DG",VLOOKUP(A89,[1]nút!$H$4:$K$8,2,0),IF(C89="TB",VLOOKUP(A89,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A89,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C89="DG",VLOOKUP(A89,base!$A$3:$D$7,2,0),IF(C89="TB",VLOOKUP(A89,base!$A$3:$D$7,3,0),VLOOKUP(A89,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E89" s="3">
         <f>B89*D89</f>
         <v>12</v>
       </c>
-      <c r="H89" s="50" t="s">
+      <c r="H89" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="50">
+      <c r="I89" s="39">
         <f>I88+I85</f>
         <v>19.388249999999999</v>
       </c>
-      <c r="J89" s="50" t="s">
+      <c r="J89" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="3">
@@ -4185,26 +4091,26 @@
         <v>30</v>
       </c>
       <c r="D90" s="3">
-        <f>IF(C90="DG",VLOOKUP(A90,[1]nút!$H$4:$K$8,2,0),IF(C90="TB",VLOOKUP(A90,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A90,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C90="DG",VLOOKUP(A90,base!$A$3:$D$7,2,0),IF(C90="TB",VLOOKUP(A90,base!$A$3:$D$7,3,0),VLOOKUP(A90,base!$A$3:$D$7,4,0)))</f>
         <v>4</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" ref="E90:E91" si="10">B90*D90</f>
         <v>40</v>
       </c>
-      <c r="H90" s="50" t="s">
+      <c r="H90" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I90" s="50">
+      <c r="I90" s="39">
         <f>I89-I88</f>
         <v>2.8242499999999993</v>
       </c>
-      <c r="J90" s="50" t="s">
+      <c r="J90" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="3">
@@ -4214,23 +4120,23 @@
         <v>30</v>
       </c>
       <c r="D91" s="3">
-        <f>IF(C91="DG",VLOOKUP(A91,[1]nút!$H$4:$K$8,2,0),IF(C91="TB",VLOOKUP(A91,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A91,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C91="DG",VLOOKUP(A91,base!$A$3:$D$7,2,0),IF(C91="TB",VLOOKUP(A91,base!$A$3:$D$7,3,0),VLOOKUP(A91,base!$A$3:$D$7,4,0)))</f>
         <v>3</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="H91" s="50" t="s">
+      <c r="H91" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I91" s="50">
+      <c r="I91" s="39">
         <f>1+(base!J23/100*base!G23)</f>
         <v>1.18</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="3">
@@ -4240,26 +4146,26 @@
         <v>30</v>
       </c>
       <c r="D92" s="3">
-        <f>IF(C92="DG",VLOOKUP(A92,[1]nút!$H$4:$K$8,2,0),IF(C92="TB",VLOOKUP(A92,[1]nút!$H$4:$K$8,3,0),VLOOKUP(A92,[1]nút!$H$4:$K$8,4,0)))</f>
+        <f>IF(C92="DG",VLOOKUP(A92,base!$A$3:$D$7,2,0),IF(C92="TB",VLOOKUP(A92,base!$A$3:$D$7,3,0),VLOOKUP(A92,base!$A$3:$D$7,4,0)))</f>
         <v>7</v>
       </c>
       <c r="E92" s="3">
         <f>B92*D92</f>
         <v>21</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I92" s="50">
+      <c r="I92" s="39">
         <f>I88*(I90/I88)*I91</f>
         <v>3.3326149999999988</v>
       </c>
-      <c r="J92" s="50" t="s">
+      <c r="J92" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="3">
@@ -4270,55 +4176,55 @@
       <c r="E93" s="3">
         <v>0</v>
       </c>
-      <c r="H93" s="50" t="s">
+      <c r="H93" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I93" s="50">
+      <c r="I93" s="39">
         <v>2.94</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="41"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="3">
         <f>SUM(E89:E93)</f>
         <v>79</v>
       </c>
-      <c r="H94" s="67" t="s">
+      <c r="H94" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
     </row>
     <row r="95" spans="1:11" ht="15.75">
-      <c r="H95" s="46" t="s">
+      <c r="H95" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I95" s="46" t="s">
+      <c r="I95" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="46" t="s">
+      <c r="J95" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="46" t="s">
+      <c r="C96" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D96" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="46" t="s">
+      <c r="E96" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H96" s="3">
@@ -4335,7 +4241,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B97" s="3">
@@ -4349,7 +4255,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3">
@@ -4370,7 +4276,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="3">
@@ -4390,7 +4296,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="3">
@@ -4411,7 +4317,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="3">
@@ -4424,64 +4330,64 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="41"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="3">
         <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
-      <c r="G102" s="57"/>
+      <c r="G102" s="42"/>
     </row>
     <row r="103" spans="1:10" ht="15.75">
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
-      <c r="J103" s="69"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="H104" s="50" t="s">
+      <c r="H104" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I104" s="50">
+      <c r="I104" s="39">
         <f>base!F40/1000</f>
         <v>16.564</v>
       </c>
-      <c r="J104" s="50" t="s">
+      <c r="J104" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="H105" s="50" t="s">
+      <c r="H105" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I105" s="50">
+      <c r="I105" s="39">
         <f>I104+SUM(I85,I59,I33,I8)</f>
-        <v>23.041899999999998</v>
-      </c>
-      <c r="J105" s="50" t="s">
+        <v>22.961600000000001</v>
+      </c>
+      <c r="J105" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="H106" s="50" t="s">
+      <c r="H106" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I106" s="50">
+      <c r="I106" s="39">
         <f>I105-I104</f>
-        <v>6.4778999999999982</v>
-      </c>
-      <c r="J106" s="50" t="s">
+        <v>6.3976000000000006</v>
+      </c>
+      <c r="J106" s="39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75">
-      <c r="H108" s="68" t="s">
+      <c r="H108" s="45" t="s">
         <v>84</v>
       </c>
       <c r="I108" s="2">
@@ -4490,7 +4396,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75">
-      <c r="H109" s="68" t="s">
+      <c r="H109" s="45" t="s">
         <v>86</v>
       </c>
       <c r="I109" s="14">
@@ -4498,7 +4404,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75">
-      <c r="H110" s="68" t="s">
+      <c r="H110" s="45" t="s">
         <v>85</v>
       </c>
       <c r="I110" s="14">
@@ -4508,6 +4414,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="G103:J103"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A51:E51"/>
@@ -4524,31 +4455,6 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A50:D50"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="H94:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4566,29 +4472,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="50"/>
-    <col min="5" max="5" width="10.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="39"/>
+    <col min="5" max="5" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -4600,22 +4506,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="35" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4642,46 +4548,46 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="39">
         <f>1+(base!J23/100*base!G23)</f>
         <v>1.18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="40">
         <f>C2*(C5+G5)/C2*B7</f>
         <v>7.0800000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="39">
         <v>2.94</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="35" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4700,7 +4606,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="45" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="2">
@@ -4709,7 +4615,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="14">
@@ -4717,7 +4623,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="14">
@@ -4774,7 +4680,7 @@
       </c>
       <c r="B4">
         <f>B3+('UFP+COCOMO II'!I8+'UFP+COCOMO II'!I33+'UFP+COCOMO II'!I59+'UFP+COCOMO II'!I85)</f>
-        <v>23.041899999999998</v>
+        <v>22.961600000000001</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
@@ -4786,7 +4692,7 @@
       </c>
       <c r="B5">
         <f>B4-B3</f>
-        <v>6.4778999999999982</v>
+        <v>6.3976000000000006</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
@@ -4807,7 +4713,7 @@
       </c>
       <c r="B7">
         <f>B3*(B5/B3)*B6</f>
-        <v>7.6439219999999972</v>
+        <v>7.5491680000000008</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
@@ -4822,11 +4728,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="15" t="s">
@@ -4850,7 +4756,7 @@
       </c>
       <c r="C11" s="3">
         <f>B8*POWER(B7,A11)*B11</f>
-        <v>52.857062341206976</v>
+        <v>52.144122603617483</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
@@ -4859,7 +4765,7 @@
       </c>
       <c r="B13" s="13">
         <f>ROUND(C11,0)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
@@ -4876,7 +4782,7 @@
       </c>
       <c r="B15" s="14">
         <f>B13*B14</f>
-        <v>318000000</v>
+        <v>312000000</v>
       </c>
     </row>
   </sheetData>
